--- a/homework_4/Home Task Collections.xlsx
+++ b/homework_4/Home Task Collections.xlsx
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>44</v>

--- a/homework_4/Home Task Collections.xlsx
+++ b/homework_4/Home Task Collections.xlsx
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>44</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>45</v>
@@ -1048,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>45</v>

--- a/homework_4/Home Task Collections.xlsx
+++ b/homework_4/Home Task Collections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>44</v>
@@ -884,7 +884,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>44</v>
@@ -971,7 +971,7 @@
         <v>44</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>45</v>
